--- a/premise/data/metals/conversion_factors.xlsx
+++ b/premise/data/metals/conversion_factors.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECB8779-E95E-6646-9F6B-78EE6F2A9830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion factors" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="Wind_on_4.5MW" sheetId="4" r:id="rId4"/>
     <sheet name="Wind_on_750kW" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="154">
   <si>
     <t>Activity</t>
   </si>
@@ -62,9 +61,6 @@
   </si>
   <si>
     <t>EI_unit</t>
-  </si>
-  <si>
-    <t>DLR_unit</t>
   </si>
   <si>
     <t>kg/MW</t>
@@ -528,9 +524,6 @@
 Time period:  according to the sources Spanos et al. (2015) cited</t>
   </si>
   <si>
-    <t>fuel cell production, polymer electrolyte membrane, 2kW electrical, future</t>
-  </si>
-  <si>
     <t>The module reflects an average electric motor used in BEV or HEV
 Geography:  Data valid for average electric motor
 Technology:  Production of electric motor for BEV or HEV</t>
@@ -549,9 +542,6 @@
     <t>fuel cell production, solid oxide, 125kW electrical, future</t>
   </si>
   <si>
-    <t>electrolyzer, PEM</t>
-  </si>
-  <si>
     <t>photovoltaic cell production, multi-Si wafer</t>
   </si>
   <si>
@@ -622,9 +612,6 @@
 Ecoinvent bases this inventory in "Notter D. A., Gauch M., Widmer R., Wäger P., Stamp A., Zah R. and Althaus H.-J. (2010) Contribution of Li-ion batteries to the environmental impact of electric vehicles. In: Environmental Science &amp; Technology". There, a battery of 0.114 kWh/kg is described</t>
   </si>
   <si>
-    <t>1 MW PEM electrolyzer based on Bareiß, K., de la Rua, C., Möckl, M., Hamacher, T., 2019. Life cycle assessment of hydrogen from proton exchange membrane water electrolysis in future energy systems 237, 862-872. 10.1016/j.apenergy.2019.01.001</t>
-  </si>
-  <si>
     <t>Simons A, Bauer C. Life cycle assessment of the Evolutionary Power Reactor (EPR) and the influence of different fuel cycle strategies. Proceedings of the Institution of Mechanical Engineers, Part A: Journal of Power and Energy. 2012;226(3):427-444. doi:10.1177/0957650912440549</t>
   </si>
   <si>
@@ -677,13 +664,52 @@
   </si>
   <si>
     <t>We divide the motor power by its weight. We obtain MWp/(kg of motor). This unit allows us to use the (kg of materials)/MW, as the reference flow unit is in kg</t>
+  </si>
+  <si>
+    <t>metals_db_unit</t>
+  </si>
+  <si>
+    <t>passenger car production, petrol/natural gas</t>
+  </si>
+  <si>
+    <t>passenger car, diesel</t>
+  </si>
+  <si>
+    <t>kg metal/kg vehicle</t>
+  </si>
+  <si>
+    <t>battery cell production, Li-ion, LFP</t>
+  </si>
+  <si>
+    <t>battery production, NiMH, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>fuel cell stack production, 1 kWe, proton exchange membrane (PEM)</t>
+  </si>
+  <si>
+    <t>electrolyzer production, 1MWe, PEM, Stack</t>
+  </si>
+  <si>
+    <t>electrolyzer production, 1MWe, AEC, Stack</t>
+  </si>
+  <si>
+    <t>electrolyzer production, 1MWe, SOEC, Stack</t>
+  </si>
+  <si>
+    <t>We assume a energy density of 0.1 kWh/kg</t>
+  </si>
+  <si>
+    <t>Quick search online for laptop battery providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dataset represents the production of 1 kg of Li-ion battery cell with lithium iron phosphate (LFP) cathode and graphite-based anode.The specific energy capacity of a cell is 0.159 kWh/kg cell, calculated from Dai et al. (2018). The inventory is modelled according to the publication of Dai et al. (2018) and in line with other literature, e.g. Simon et al. (2016, Table 3). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,10 +747,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -734,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -752,6 +789,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1032,24 +1071,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1069,791 +1108,884 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D5" si="0">0.1/53</f>
+        <v>1.8867924528301887E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D3" si="0">0.1/53</f>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
         <v>1.8867924528301887E-3</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8867924528301887E-3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
         <f>0.1/53</f>
         <v>1.8867924528301887E-3</v>
       </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
         <f>800/1000</f>
         <v>0.8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
         <f>750/1000</f>
         <v>0.75</v>
       </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
         <f>2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4">
         <f>0.114/0.32686</f>
         <v>0.3487731750596586</v>
       </c>
-      <c r="F10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D13" s="4">
+        <f>D14</f>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="4">
-        <f>D12</f>
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4">
         <f>0.197</f>
         <v>0.19700000000000001</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4">
+        <f>AVERAGE(D13,D16)</f>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4">
+        <f>D17</f>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="4">
-        <f>AVERAGE(D11,D14)</f>
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="4">
-        <f>D15</f>
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4">
         <f>0.209</f>
         <v>0.20899999999999999</v>
       </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="4">
+        <f>D19</f>
+        <v>0.224</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="4">
-        <f>D17</f>
-        <v>0.224</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="4">
         <f>0.224</f>
         <v>0.224</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="4">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="4">
         <f>0.159</f>
         <v>0.159</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
         <v>93</v>
       </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="4">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4">
         <f>29.5/1000</f>
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4">
-        <f>2/1000</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
         <f>(0.00021)</f>
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="F23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3">
         <f>(0.000192)</f>
         <v>1.92E-4</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
         <f>(0.000224)</f>
         <v>2.24E-4</v>
       </c>
-      <c r="F25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3">
-        <f>D23</f>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3">
+        <f>D29</f>
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
-        <f>D25</f>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3">
+        <f>D31</f>
         <v>2.24E-4</v>
       </c>
-      <c r="F27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3">
         <f>0.000128</f>
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="E28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
         <f>0.0001/1.4</f>
         <v>7.1428571428571434E-5</v>
       </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
         <f>0.0001/1.4</f>
         <v>7.1428571428571434E-5</v>
       </c>
-      <c r="E30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3">
         <f>0.00008/(1.2*0.6)</f>
         <v>1.1111111111111113E-4</v>
       </c>
-      <c r="E31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3">
         <f>0.000078/(1.2*0.6)</f>
         <v>1.0833333333333334E-4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="E38" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3">
         <f>0.000065/(1.2*0.6)</f>
         <v>9.0277777777777774E-5</v>
       </c>
-      <c r="E33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
         <f>0.000115</f>
         <v>1.15E-4</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="F40" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
         <f>445/1000</f>
         <v>0.44500000000000001</v>
       </c>
-      <c r="F35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3">
+        <f>D31</f>
+        <v>2.24E-4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3">
-        <f>D25</f>
-        <v>2.24E-4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>1500</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>1500</v>
-      </c>
-      <c r="E41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H84">
-        <f>SUM(H8:H77)</f>
+    <row r="90" spans="8:8">
+      <c r="H90">
+        <f>SUM(H10:H83)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F40" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1861,46 +1993,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>207</v>
       </c>
@@ -1908,14 +2040,14 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <f>IF(A4&gt;0,A4,0)</f>
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3750</v>
       </c>
@@ -1923,14 +2055,14 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D68" si="0">IF(A5&gt;0,A5,0)</f>
         <v>3750</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1938,14 +2070,14 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -1953,14 +2085,14 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1460</v>
       </c>
@@ -1968,14 +2100,14 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>1460</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>434</v>
       </c>
@@ -1983,14 +2115,14 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>14500</v>
       </c>
@@ -1998,14 +2130,14 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>207</v>
       </c>
@@ -2013,14 +2145,14 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10230</v>
       </c>
@@ -2028,14 +2160,14 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>10230</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2043,14 +2175,14 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>621</v>
       </c>
@@ -2058,29 +2190,29 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>621</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>17510</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>17510</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>6480</v>
       </c>
@@ -2088,14 +2220,14 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>6480</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9660</v>
       </c>
@@ -2103,14 +2235,14 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>9660</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.5</v>
       </c>
@@ -2118,14 +2250,14 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>1460</v>
       </c>
@@ -2133,14 +2265,14 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>1460</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>14500</v>
       </c>
@@ -2148,14 +2280,14 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>-207</v>
       </c>
@@ -2163,14 +2295,14 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>-1.9250936128478799</v>
       </c>
@@ -2178,14 +2310,14 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>-0.1484134022501</v>
       </c>
@@ -2193,14 +2325,14 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>-6.13000504796797E-2</v>
       </c>
@@ -2208,14 +2340,14 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>-5.8210128804152599E-2</v>
       </c>
@@ -2223,14 +2355,14 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>-2.22122066071924</v>
       </c>
@@ -2238,14 +2370,14 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>-2.47645202667264E-2</v>
       </c>
@@ -2253,14 +2385,14 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>-1.12242641380724E-2</v>
       </c>
@@ -2268,14 +2400,14 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>-15.5497733604941</v>
       </c>
@@ -2283,14 +2415,14 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>10.2311999999993</v>
       </c>
@@ -2298,14 +2430,14 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>10.2311999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>48.568800000000699</v>
       </c>
@@ -2313,14 +2445,14 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>48.568800000000699</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>-6021.63645862063</v>
       </c>
@@ -2328,14 +2460,14 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>-7.6291978370255498</v>
       </c>
@@ -2343,14 +2475,14 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>-18700.734343542299</v>
       </c>
@@ -2358,14 +2490,14 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>-335.06254331617299</v>
       </c>
@@ -2373,14 +2505,14 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>-25.8313526616299</v>
       </c>
@@ -2388,14 +2520,14 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>-10.669273785988199</v>
       </c>
@@ -2403,14 +2535,14 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>-10.1314729183628</v>
       </c>
@@ -2418,14 +2550,14 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>-386.60345599818402</v>
       </c>
@@ -2433,14 +2565,14 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>-4.3102647524237199</v>
       </c>
@@ -2448,14 +2580,14 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>-1.9535831732315101</v>
       </c>
@@ -2463,14 +2595,14 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>-2706.4380533940098</v>
       </c>
@@ -2478,14 +2610,14 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>-59.774156678926602</v>
       </c>
@@ -2493,14 +2625,14 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>-4.6082361398656104</v>
       </c>
@@ -2508,14 +2640,14 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>-1.9033665673940501</v>
       </c>
@@ -2523,14 +2655,14 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>-1.8074244993689399</v>
       </c>
@@ -2538,14 +2670,14 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>-68.968901515332504</v>
       </c>
@@ -2553,14 +2685,14 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>-0.76893835428185298</v>
       </c>
@@ -2568,14 +2700,14 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>-0.34851340148714899</v>
       </c>
@@ -2583,14 +2715,14 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>-482.82046284334302</v>
       </c>
@@ -2598,14 +2730,14 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>-41.774531398798899</v>
       </c>
@@ -2613,14 +2745,14 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>-3.2205708288271699</v>
       </c>
@@ -2628,14 +2760,14 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>-1.33021109540905</v>
       </c>
@@ -2643,14 +2775,14 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>-1.2631597950501099</v>
       </c>
@@ -2658,14 +2790,14 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>-48.200488337607602</v>
       </c>
@@ -2673,14 +2805,14 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>-0.53739008978796199</v>
       </c>
@@ -2688,14 +2820,14 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>-0.24356653179617199</v>
       </c>
@@ -2703,14 +2835,14 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>-337.43008192272299</v>
       </c>
@@ -2718,14 +2850,14 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>-463.12334567726998</v>
       </c>
@@ -2733,14 +2865,14 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>-21.728740132701599</v>
       </c>
@@ -2748,14 +2880,14 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>-975.14791419002802</v>
       </c>
@@ -2763,14 +2895,14 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>-955.84819645115397</v>
       </c>
@@ -2778,14 +2910,14 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>-46.379134770458698</v>
       </c>
@@ -2793,14 +2925,14 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>-4.3271063444259603</v>
       </c>
@@ -2808,14 +2940,14 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>-19.362210571508601</v>
       </c>
@@ -2823,14 +2955,14 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>-503.20305355150998</v>
       </c>
@@ -2838,14 +2970,14 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>-6.5709524492519602</v>
       </c>
@@ -2853,14 +2985,14 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>-1.0521864141291499</v>
       </c>
@@ -2868,14 +3000,14 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>-4742.2571594475603</v>
       </c>
@@ -2883,14 +3015,14 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D69">
         <f t="shared" ref="D69:D72" si="1">IF(A69&gt;0,A69,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>-16.140084415807301</v>
       </c>
@@ -2898,14 +3030,14 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>-0.39956428824000201</v>
       </c>
@@ -2913,14 +3045,14 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>-42.260351295952702</v>
       </c>
@@ -2928,14 +3060,14 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="D73">
         <f>SUM(D4:D72)</f>
         <v>81198.799999999988</v>
@@ -2947,43 +3079,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>-1678</v>
       </c>
@@ -2991,14 +3123,14 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <f>IF(A4&gt;0,A4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>536.96</v>
       </c>
@@ -3006,14 +3138,14 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D65" si="0">IF(A5&gt;0,A5,0)</f>
         <v>536.96</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1141.04</v>
       </c>
@@ -3021,14 +3153,14 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>1141.04</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>20688</v>
       </c>
@@ -3036,29 +3168,29 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>20688</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>350</v>
       </c>
       <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2816</v>
       </c>
@@ -3066,29 +3198,29 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>2816</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>144299.35</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>144299.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>-440</v>
       </c>
@@ -3096,14 +3228,14 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>440</v>
       </c>
@@ -3111,14 +3243,14 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1646.57592</v>
       </c>
@@ -3126,14 +3258,14 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>1646.57592</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>7816.5040799999997</v>
       </c>
@@ -3141,29 +3273,29 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>7816.5040799999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14194.62</v>
       </c>
@@ -3171,14 +3303,14 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>14194.62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>-20688</v>
       </c>
@@ -3186,14 +3318,14 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>3088</v>
       </c>
@@ -3201,14 +3333,14 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>3088</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>27000</v>
       </c>
@@ -3216,29 +3348,29 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>8000</v>
       </c>
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
       <c r="D20">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>-1880.83323723227</v>
       </c>
@@ -3246,14 +3378,14 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>-893.25708316931002</v>
       </c>
@@ -3261,14 +3393,14 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>-41.909679598416098</v>
       </c>
@@ -3276,14 +3408,14 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>-158552.43309926699</v>
       </c>
@@ -3291,14 +3423,14 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>-51053.883457963901</v>
       </c>
@@ -3306,14 +3438,14 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>-64.683442769388705</v>
       </c>
@@ -3321,14 +3453,14 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>1678</v>
       </c>
@@ -3336,14 +3468,14 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>1678</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>13328</v>
       </c>
@@ -3351,14 +3483,14 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>13328</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>196140</v>
       </c>
@@ -3366,14 +3498,14 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>196140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>13328</v>
       </c>
@@ -3381,14 +3513,14 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>13328</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>196140</v>
       </c>
@@ -3396,14 +3528,14 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>196140</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>-5360.2913139542597</v>
       </c>
@@ -3411,14 +3543,14 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>-1080.4190098988299</v>
       </c>
@@ -3426,14 +3558,14 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>-568.78293741068205</v>
       </c>
@@ -3441,14 +3573,14 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>-52.423490523606297</v>
       </c>
@@ -3456,14 +3588,14 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>-21.8855885827797</v>
       </c>
@@ -3471,14 +3603,14 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>-7.4273111208154896</v>
       </c>
@@ -3486,14 +3618,14 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>-4.89103601359417</v>
       </c>
@@ -3501,14 +3633,14 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>-1.18931249543923</v>
       </c>
@@ -3516,14 +3648,14 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>-5518.0780984584399</v>
       </c>
@@ -3531,14 +3663,14 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>-788.23458037646503</v>
       </c>
@@ -3546,14 +3678,14 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>-683.14930747006804</v>
       </c>
@@ -3561,14 +3693,14 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>-52.666796196182901</v>
       </c>
@@ -3576,14 +3708,14 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>-21.753273063496799</v>
       </c>
@@ -3591,14 +3723,14 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>-20.656766463149999</v>
       </c>
@@ -3606,14 +3738,14 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>-8.7880738667119793</v>
       </c>
@@ -3621,14 +3753,14 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>-3.9831041054891401</v>
       </c>
@@ -3636,14 +3768,14 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>-2400.8850068603001</v>
       </c>
@@ -3651,14 +3783,14 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>-342.95647001505102</v>
       </c>
@@ -3666,14 +3798,14 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>-297.23445382371199</v>
       </c>
@@ -3681,14 +3813,14 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>-22.915029307415399</v>
       </c>
@@ -3696,14 +3828,14 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>-9.4647277940625401</v>
       </c>
@@ -3711,14 +3843,14 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>-8.9876438873611608</v>
       </c>
@@ -3726,14 +3858,14 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>-3.8236419291825499</v>
       </c>
@@ -3741,14 +3873,14 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>-1.7330263829183801</v>
       </c>
@@ -3756,14 +3888,14 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>-6729.0976909670799</v>
       </c>
@@ -3771,14 +3903,14 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>-2654.3326476308398</v>
       </c>
@@ -3786,14 +3918,14 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>-79.64966140208</v>
       </c>
@@ -3801,14 +3933,14 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>-809666.73499999999</v>
       </c>
@@ -3816,14 +3948,14 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>-56732.144999999997</v>
       </c>
@@ -3831,14 +3963,14 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>-601.12</v>
       </c>
@@ -3846,29 +3978,29 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>296</v>
       </c>
       <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="C62" t="s">
-        <v>70</v>
-      </c>
       <c r="D62">
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>2816</v>
       </c>
@@ -3876,14 +4008,14 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
         <v>2816</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>203</v>
       </c>
@@ -3891,29 +4023,29 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>979.68</v>
       </c>
       <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
         <v>72</v>
       </c>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
       <c r="D65">
         <f t="shared" si="0"/>
         <v>979.68</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="D66">
         <f>SUM(D4:D65)</f>
         <v>657275.7300000001</v>
@@ -3925,43 +4057,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4">
         <f>IF(A4&gt;0,A4,0)</f>
         <v>0</v>
@@ -3973,43 +4105,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4">
         <f>IF(A4&gt;0,A4,0)</f>
         <v>0</v>

--- a/premise/data/metals/conversion_factors.xlsx
+++ b/premise/data/metals/conversion_factors.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162C2D7-5668-4805-9922-92795EC0BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="14055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion factors" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="Wind_on_4.5MW" sheetId="4" r:id="rId4"/>
     <sheet name="Wind_on_750kW" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,9 +430,6 @@
     <t>Equal to that from Ecoinvent</t>
   </si>
   <si>
-    <t>Battery cell, NMC-622</t>
-  </si>
-  <si>
     <t>Battery cell, NMC-811</t>
   </si>
   <si>
@@ -536,12 +534,6 @@
     <t>wind power plant construction, 2MW, offshore, moving parts</t>
   </si>
   <si>
-    <t>cathode production, LiMn2O4, for lithium-ion battery</t>
-  </si>
-  <si>
-    <t>fuel cell production, solid oxide, 125kW electrical, future</t>
-  </si>
-  <si>
     <t>photovoltaic cell production, multi-Si wafer</t>
   </si>
   <si>
@@ -672,9 +664,6 @@
     <t>passenger car production, petrol/natural gas</t>
   </si>
   <si>
-    <t>passenger car, diesel</t>
-  </si>
-  <si>
     <t>kg metal/kg vehicle</t>
   </si>
   <si>
@@ -703,12 +692,24 @@
   </si>
   <si>
     <t xml:space="preserve">This dataset represents the production of 1 kg of Li-ion battery cell with lithium iron phosphate (LFP) cathode and graphite-based anode.The specific energy capacity of a cell is 0.159 kWh/kg cell, calculated from Dai et al. (2018). The inventory is modelled according to the publication of Dai et al. (2018) and in line with other literature, e.g. Simon et al. (2016, Table 3). </t>
+  </si>
+  <si>
+    <t>cathode production, LiMn2O4, for Li-ion battery</t>
+  </si>
+  <si>
+    <t>passenger car production, diesel</t>
+  </si>
+  <si>
+    <t>battery cell, NMC-622</t>
+  </si>
+  <si>
+    <t>fuel cell production, stack solid oxide, 125kW electrical, future</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1071,11 +1072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1096,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1109,14 +1110,14 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
-        <v>143</v>
+      <c r="A2" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -1126,13 +1127,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -1158,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1177,10 +1178,10 @@
         <v>1.8867924528301887E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1198,10 +1199,10 @@
         <v>1.8867924528301887E-3</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1288,7 +1289,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1303,7 +1304,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1316,7 +1317,7 @@
         <v>0.3487731750596586</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1363,7 +1364,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1376,12 +1377,12 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1399,7 +1400,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1412,7 +1413,7 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
         <v>78</v>
@@ -1420,7 +1421,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1438,7 +1439,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1451,7 +1452,7 @@
         <v>0.224</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
         <v>78</v>
@@ -1459,7 +1460,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1472,15 +1473,15 @@
         <v>0.159</v>
       </c>
       <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
         <v>92</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1492,12 +1493,12 @@
         <v>0.159</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1510,12 +1511,12 @@
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1527,15 +1528,15 @@
         <v>0.1</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -1549,7 +1550,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1564,7 +1565,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1578,7 +1579,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1592,7 +1593,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1606,7 +1607,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
@@ -1619,12 +1620,12 @@
         <v>2.1000000000000001E-4</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
@@ -1637,12 +1638,12 @@
         <v>1.92E-4</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
@@ -1655,12 +1656,12 @@
         <v>2.24E-4</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -1673,12 +1674,12 @@
         <v>2.1000000000000001E-4</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
@@ -1691,12 +1692,12 @@
         <v>2.24E-4</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
@@ -1709,12 +1710,12 @@
         <v>1.2799999999999999E-4</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
@@ -1727,12 +1728,12 @@
         <v>7.1428571428571434E-5</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -1745,12 +1746,12 @@
         <v>7.1428571428571434E-5</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -1763,12 +1764,12 @@
         <v>1.1111111111111113E-4</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
@@ -1781,12 +1782,12 @@
         <v>1.0833333333333334E-4</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
@@ -1799,12 +1800,12 @@
         <v>9.0277777777777774E-5</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
@@ -1817,12 +1818,12 @@
         <v>1.15E-4</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
@@ -1835,12 +1836,12 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
@@ -1853,15 +1854,15 @@
         <v>2.24E-4</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -1875,7 +1876,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -1889,7 +1890,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -1903,7 +1904,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -1917,7 +1918,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -1929,15 +1930,15 @@
         <v>1500</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -1951,7 +1952,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -1965,7 +1966,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -1985,7 +1986,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F40" r:id="rId1"/>
+    <hyperlink ref="F40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1993,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3079,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4057,7 +4058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4105,7 +4106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/premise/data/metals/conversion_factors.xlsx
+++ b/premise/data/metals/conversion_factors.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162C2D7-5668-4805-9922-92795EC0BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A8008-5C4D-4A24-998C-31D713D92899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="158">
   <si>
     <t>Activity</t>
   </si>
@@ -704,6 +704,18 @@
   </si>
   <si>
     <t>fuel cell production, stack solid oxide, 125kW electrical, future</t>
+  </si>
+  <si>
+    <t>battery cell assembly, for LiS battery</t>
+  </si>
+  <si>
+    <t>Specific energy density: 150 Wh/kg. Projected up to 500 Wh/kg in an optimistic future</t>
+  </si>
+  <si>
+    <t>battery cell production, Li-O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery energy density: 238 Wh/kg </t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1536,64 +1548,71 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4">
-        <v>0.01</v>
+        <v>0.15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4">
+        <f>0.238</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1607,97 +1626,89 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
         <f>(0.00021)</f>
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D32" s="3">
         <f>(0.000192)</f>
         <v>1.92E-4</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D33" s="3">
         <f>(0.000224)</f>
         <v>2.24E-4</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F33" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <f>D29</f>
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="3">
-        <f>D31</f>
-        <v>2.24E-4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
@@ -1706,191 +1717,199 @@
         <v>9</v>
       </c>
       <c r="D34" s="3">
+        <f>D31</f>
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
+        <f>D33</f>
+        <v>2.24E-4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
         <f>0.000128</f>
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D37" s="3">
         <f>0.0001/1.4</f>
         <v>7.1428571428571434E-5</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D38" s="3">
         <f>0.0001/1.4</f>
         <v>7.1428571428571434E-5</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D39" s="3">
         <f>0.00008/(1.2*0.6)</f>
         <v>1.1111111111111113E-4</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D40" s="3">
         <f>0.000078/(1.2*0.6)</f>
         <v>1.0833333333333334E-4</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D41" s="3">
         <f>0.000065/(1.2*0.6)</f>
         <v>9.0277777777777774E-5</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D42" s="3">
         <f>0.000115</f>
         <v>1.15E-4</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>71</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D43" s="3">
         <f>445/1000</f>
         <v>0.44500000000000001</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F43" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3">
-        <f>D31</f>
-        <v>2.24E-4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44">
-        <v>50</v>
+      <c r="D44" s="3">
+        <f>D33</f>
+        <v>2.24E-4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -1899,12 +1918,12 @@
         <v>9</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -1913,12 +1932,12 @@
         <v>9</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -1927,18 +1946,12 @@
         <v>9</v>
       </c>
       <c r="D47">
-        <v>1500</v>
-      </c>
-      <c r="E47" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -1947,12 +1960,12 @@
         <v>9</v>
       </c>
       <c r="D48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -1961,12 +1974,18 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1500</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -1978,15 +1997,43 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="8:8">
-      <c r="H90">
-        <f>SUM(H10:H83)</f>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="H92">
+        <f>SUM(H10:H85)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1997,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/premise/data/metals/conversion_factors.xlsx
+++ b/premise/data/metals/conversion_factors.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A8008-5C4D-4A24-998C-31D713D92899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92EDBA3-A497-824E-B0AC-53732DCFDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion factors" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,6 +745,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -802,8 +806,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1087,21 +1091,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1121,39 +1125,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1179,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>150</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1353,7 +1357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>152</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>142</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>154</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>156</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
@@ -1591,11 +1595,12 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" s="10">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>153</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -1706,7 +1711,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -1742,7 +1747,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -1760,7 +1765,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -1814,7 +1819,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -1886,7 +1891,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
@@ -1921,7 +1926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
@@ -1935,7 +1940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -1949,7 +1954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
@@ -1963,7 +1968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>115</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>116</v>
       </c>
@@ -1997,7 +2002,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>117</v>
       </c>
@@ -2011,7 +2016,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
@@ -2025,7 +2030,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="92" spans="8:8">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92">
         <f>SUM(H10:H85)</f>
         <v>0</v>
@@ -2048,13 +2053,13 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -2062,10 +2067,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -2080,7 +2085,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>207</v>
       </c>
@@ -2095,7 +2100,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3750</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2125,7 +2130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1460</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>434</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14500</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>207</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10230</v>
       </c>
@@ -2215,7 +2220,7 @@
         <v>10230</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2230,7 +2235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>621</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>17510</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>17510</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6480</v>
       </c>
@@ -2275,7 +2280,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9660</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>9660</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.5</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1460</v>
       </c>
@@ -2320,7 +2325,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14500</v>
       </c>
@@ -2335,7 +2340,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-207</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-1.9250936128478799</v>
       </c>
@@ -2365,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-0.1484134022501</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-6.13000504796797E-2</v>
       </c>
@@ -2395,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-5.8210128804152599E-2</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-2.22122066071924</v>
       </c>
@@ -2425,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-2.47645202667264E-2</v>
       </c>
@@ -2440,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-1.12242641380724E-2</v>
       </c>
@@ -2455,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-15.5497733604941</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10.2311999999993</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>10.2311999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>48.568800000000699</v>
       </c>
@@ -2500,7 +2505,7 @@
         <v>48.568800000000699</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-6021.63645862063</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-7.6291978370255498</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-18700.734343542299</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-335.06254331617299</v>
       </c>
@@ -2560,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-25.8313526616299</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-10.669273785988199</v>
       </c>
@@ -2590,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-10.1314729183628</v>
       </c>
@@ -2605,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-386.60345599818402</v>
       </c>
@@ -2620,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-4.3102647524237199</v>
       </c>
@@ -2635,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-1.9535831732315101</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-2706.4380533940098</v>
       </c>
@@ -2665,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-59.774156678926602</v>
       </c>
@@ -2680,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-4.6082361398656104</v>
       </c>
@@ -2695,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-1.9033665673940501</v>
       </c>
@@ -2710,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-1.8074244993689399</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-68.968901515332504</v>
       </c>
@@ -2740,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-0.76893835428185298</v>
       </c>
@@ -2755,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-0.34851340148714899</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-482.82046284334302</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-41.774531398798899</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-3.2205708288271699</v>
       </c>
@@ -2815,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-1.33021109540905</v>
       </c>
@@ -2830,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-1.2631597950501099</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-48.200488337607602</v>
       </c>
@@ -2860,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-0.53739008978796199</v>
       </c>
@@ -2875,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-0.24356653179617199</v>
       </c>
@@ -2890,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-337.43008192272299</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-463.12334567726998</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-21.728740132701599</v>
       </c>
@@ -2935,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-975.14791419002802</v>
       </c>
@@ -2950,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-955.84819645115397</v>
       </c>
@@ -2965,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>-46.379134770458698</v>
       </c>
@@ -2980,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-4.3271063444259603</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-19.362210571508601</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-503.20305355150998</v>
       </c>
@@ -3025,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-6.5709524492519602</v>
       </c>
@@ -3040,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1.0521864141291499</v>
       </c>
@@ -3055,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-4742.2571594475603</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-16.140084415807301</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-0.39956428824000201</v>
       </c>
@@ -3100,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-42.260351295952702</v>
       </c>
@@ -3115,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D73">
         <f>SUM(D4:D72)</f>
         <v>81198.799999999988</v>
@@ -3134,21 +3139,21 @@
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -3163,7 +3168,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1678</v>
       </c>
@@ -3178,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>536.96</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>536.96</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1141.04</v>
       </c>
@@ -3208,7 +3213,7 @@
         <v>1141.04</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20688</v>
       </c>
@@ -3223,7 +3228,7 @@
         <v>20688</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>350</v>
       </c>
@@ -3238,7 +3243,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2816</v>
       </c>
@@ -3253,7 +3258,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>144299.35</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>144299.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-440</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>440</v>
       </c>
@@ -3298,7 +3303,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1646.57592</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>1646.57592</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7816.5040799999997</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>7816.5040799999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>350</v>
       </c>
@@ -3343,7 +3348,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14194.62</v>
       </c>
@@ -3358,7 +3363,7 @@
         <v>14194.62</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-20688</v>
       </c>
@@ -3373,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3088</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>27000</v>
       </c>
@@ -3403,7 +3408,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8000</v>
       </c>
@@ -3418,7 +3423,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1880.83323723227</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-893.25708316931002</v>
       </c>
@@ -3448,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-41.909679598416098</v>
       </c>
@@ -3463,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-158552.43309926699</v>
       </c>
@@ -3478,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-51053.883457963901</v>
       </c>
@@ -3493,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-64.683442769388705</v>
       </c>
@@ -3508,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1678</v>
       </c>
@@ -3523,7 +3528,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>13328</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>13328</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>196140</v>
       </c>
@@ -3553,7 +3558,7 @@
         <v>196140</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>13328</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>13328</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>196140</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>196140</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-5360.2913139542597</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-1080.4190098988299</v>
       </c>
@@ -3613,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-568.78293741068205</v>
       </c>
@@ -3628,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-52.423490523606297</v>
       </c>
@@ -3643,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-21.8855885827797</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-7.4273111208154896</v>
       </c>
@@ -3673,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-4.89103601359417</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-1.18931249543923</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-5518.0780984584399</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-788.23458037646503</v>
       </c>
@@ -3733,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-683.14930747006804</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-52.666796196182901</v>
       </c>
@@ -3763,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-21.753273063496799</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-20.656766463149999</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-8.7880738667119793</v>
       </c>
@@ -3808,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-3.9831041054891401</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-2400.8850068603001</v>
       </c>
@@ -3838,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-342.95647001505102</v>
       </c>
@@ -3853,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-297.23445382371199</v>
       </c>
@@ -3868,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-22.915029307415399</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-9.4647277940625401</v>
       </c>
@@ -3898,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-8.9876438873611608</v>
       </c>
@@ -3913,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-3.8236419291825499</v>
       </c>
@@ -3928,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-1.7330263829183801</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-6729.0976909670799</v>
       </c>
@@ -3958,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-2654.3326476308398</v>
       </c>
@@ -3973,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-79.64966140208</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-809666.73499999999</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-56732.144999999997</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-601.12</v>
       </c>
@@ -4033,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>296</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2816</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>203</v>
       </c>
@@ -4078,7 +4083,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>979.68</v>
       </c>
@@ -4093,7 +4098,7 @@
         <v>979.68</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D66">
         <f>SUM(D4:D65)</f>
         <v>657275.7300000001</v>
@@ -4112,21 +4117,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -4141,7 +4146,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4">
         <f>IF(A4&gt;0,A4,0)</f>
         <v>0</v>
@@ -4160,21 +4165,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -4189,7 +4194,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4">
         <f>IF(A4&gt;0,A4,0)</f>
         <v>0</v>

--- a/premise/data/metals/conversion_factors.xlsx
+++ b/premise/data/metals/conversion_factors.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92EDBA3-A497-824E-B0AC-53732DCFDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8D18F-61B1-4D87-B992-3611FC037CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion factors" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="162">
   <si>
     <t>Activity</t>
   </si>
@@ -717,6 +717,18 @@
   <si>
     <t xml:space="preserve">Battery energy density: 238 Wh/kg </t>
   </si>
+  <si>
+    <t>sputter process 1, perovskite cell</t>
+  </si>
+  <si>
+    <t>sputter process 2, perovskite cell</t>
+  </si>
+  <si>
+    <t>sputter process 3, perovskite cell</t>
+  </si>
+  <si>
+    <t>Conversion factor is one because I am taking an intensity of 0 for 2050, and want to use current values for the uncertainty</t>
+  </si>
 </sst>
 </file>
 
@@ -725,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +763,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -788,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -808,6 +827,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1091,21 +1111,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -1141,7 +1161,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -1157,7 +1177,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1199,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1220,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1282,7 +1302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
@@ -1318,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>150</v>
       </c>
@@ -1336,7 +1356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1357,7 +1377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1378,7 +1398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>152</v>
       </c>
@@ -1396,7 +1416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -1414,7 +1434,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -1435,7 +1455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -1453,7 +1473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -1474,7 +1494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -1495,7 +1515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -1512,7 +1532,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -1530,7 +1550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>142</v>
       </c>
@@ -1550,7 +1570,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>154</v>
       </c>
@@ -1567,7 +1587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>156</v>
       </c>
@@ -1585,7 +1605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>143</v>
       </c>
@@ -1600,7 +1620,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>153</v>
       </c>
@@ -1615,7 +1635,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
@@ -1629,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -1643,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
@@ -1657,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -1675,7 +1695,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -1693,7 +1713,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -1711,7 +1731,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -1729,7 +1749,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -1747,7 +1767,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -1765,7 +1785,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -1783,7 +1803,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -1819,7 +1839,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>106</v>
       </c>
@@ -1837,7 +1857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -1855,7 +1875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -1873,7 +1893,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -1891,7 +1911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -1912,7 +1932,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
@@ -1926,7 +1946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
@@ -1940,7 +1960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -1954,7 +1974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
@@ -1968,7 +1988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>115</v>
       </c>
@@ -1988,7 +2008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>116</v>
       </c>
@@ -2002,7 +2022,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>117</v>
       </c>
@@ -2016,7 +2036,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
@@ -2030,7 +2050,52 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15.75">
+      <c r="A53" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75">
+      <c r="A54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75">
+      <c r="A55" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8">
       <c r="H92">
         <f>SUM(H10:H85)</f>
         <v>0</v>
@@ -2053,13 +2118,13 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -2067,10 +2132,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -2085,7 +2150,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>207</v>
       </c>
@@ -2100,7 +2165,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3750</v>
       </c>
@@ -2115,7 +2180,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2130,7 +2195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -2145,7 +2210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1460</v>
       </c>
@@ -2160,7 +2225,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>434</v>
       </c>
@@ -2175,7 +2240,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>14500</v>
       </c>
@@ -2190,7 +2255,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>207</v>
       </c>
@@ -2205,7 +2270,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10230</v>
       </c>
@@ -2220,7 +2285,7 @@
         <v>10230</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2235,7 +2300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>621</v>
       </c>
@@ -2250,7 +2315,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>17510</v>
       </c>
@@ -2265,7 +2330,7 @@
         <v>17510</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>6480</v>
       </c>
@@ -2280,7 +2345,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9660</v>
       </c>
@@ -2295,7 +2360,7 @@
         <v>9660</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0.5</v>
       </c>
@@ -2310,7 +2375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>1460</v>
       </c>
@@ -2325,7 +2390,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>14500</v>
       </c>
@@ -2340,7 +2405,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>-207</v>
       </c>
@@ -2355,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>-1.9250936128478799</v>
       </c>
@@ -2370,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>-0.1484134022501</v>
       </c>
@@ -2385,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>-6.13000504796797E-2</v>
       </c>
@@ -2400,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>-5.8210128804152599E-2</v>
       </c>
@@ -2415,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>-2.22122066071924</v>
       </c>
@@ -2430,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>-2.47645202667264E-2</v>
       </c>
@@ -2445,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>-1.12242641380724E-2</v>
       </c>
@@ -2460,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>-15.5497733604941</v>
       </c>
@@ -2475,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>10.2311999999993</v>
       </c>
@@ -2490,7 +2555,7 @@
         <v>10.2311999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>48.568800000000699</v>
       </c>
@@ -2505,7 +2570,7 @@
         <v>48.568800000000699</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>-6021.63645862063</v>
       </c>
@@ -2520,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>-7.6291978370255498</v>
       </c>
@@ -2535,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>-18700.734343542299</v>
       </c>
@@ -2550,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>-335.06254331617299</v>
       </c>
@@ -2565,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>-25.8313526616299</v>
       </c>
@@ -2580,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>-10.669273785988199</v>
       </c>
@@ -2595,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>-10.1314729183628</v>
       </c>
@@ -2610,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>-386.60345599818402</v>
       </c>
@@ -2625,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>-4.3102647524237199</v>
       </c>
@@ -2640,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>-1.9535831732315101</v>
       </c>
@@ -2655,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>-2706.4380533940098</v>
       </c>
@@ -2670,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>-59.774156678926602</v>
       </c>
@@ -2685,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>-4.6082361398656104</v>
       </c>
@@ -2700,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>-1.9033665673940501</v>
       </c>
@@ -2715,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>-1.8074244993689399</v>
       </c>
@@ -2730,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>-68.968901515332504</v>
       </c>
@@ -2745,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>-0.76893835428185298</v>
       </c>
@@ -2760,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>-0.34851340148714899</v>
       </c>
@@ -2775,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>-482.82046284334302</v>
       </c>
@@ -2790,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>-41.774531398798899</v>
       </c>
@@ -2805,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>-3.2205708288271699</v>
       </c>
@@ -2820,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>-1.33021109540905</v>
       </c>
@@ -2835,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>-1.2631597950501099</v>
       </c>
@@ -2850,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>-48.200488337607602</v>
       </c>
@@ -2865,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>-0.53739008978796199</v>
       </c>
@@ -2880,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>-0.24356653179617199</v>
       </c>
@@ -2895,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>-337.43008192272299</v>
       </c>
@@ -2910,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>-463.12334567726998</v>
       </c>
@@ -2925,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>-21.728740132701599</v>
       </c>
@@ -2940,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>-975.14791419002802</v>
       </c>
@@ -2955,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>-955.84819645115397</v>
       </c>
@@ -2970,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>-46.379134770458698</v>
       </c>
@@ -2985,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>-4.3271063444259603</v>
       </c>
@@ -3000,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>-19.362210571508601</v>
       </c>
@@ -3015,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>-503.20305355150998</v>
       </c>
@@ -3030,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>-6.5709524492519602</v>
       </c>
@@ -3045,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>-1.0521864141291499</v>
       </c>
@@ -3060,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>-4742.2571594475603</v>
       </c>
@@ -3075,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>-16.140084415807301</v>
       </c>
@@ -3090,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>-0.39956428824000201</v>
       </c>
@@ -3105,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>-42.260351295952702</v>
       </c>
@@ -3120,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="D73">
         <f>SUM(D4:D72)</f>
         <v>81198.799999999988</v>
@@ -3139,21 +3204,21 @@
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -3168,7 +3233,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>-1678</v>
       </c>
@@ -3183,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>536.96</v>
       </c>
@@ -3198,7 +3263,7 @@
         <v>536.96</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1141.04</v>
       </c>
@@ -3213,7 +3278,7 @@
         <v>1141.04</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>20688</v>
       </c>
@@ -3228,7 +3293,7 @@
         <v>20688</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>350</v>
       </c>
@@ -3243,7 +3308,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2816</v>
       </c>
@@ -3258,7 +3323,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>144299.35</v>
       </c>
@@ -3273,7 +3338,7 @@
         <v>144299.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>-440</v>
       </c>
@@ -3288,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>440</v>
       </c>
@@ -3303,7 +3368,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1646.57592</v>
       </c>
@@ -3318,7 +3383,7 @@
         <v>1646.57592</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>7816.5040799999997</v>
       </c>
@@ -3333,7 +3398,7 @@
         <v>7816.5040799999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>350</v>
       </c>
@@ -3348,7 +3413,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14194.62</v>
       </c>
@@ -3363,7 +3428,7 @@
         <v>14194.62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>-20688</v>
       </c>
@@ -3378,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>3088</v>
       </c>
@@ -3393,7 +3458,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>27000</v>
       </c>
@@ -3408,7 +3473,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>8000</v>
       </c>
@@ -3423,7 +3488,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>-1880.83323723227</v>
       </c>
@@ -3438,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>-893.25708316931002</v>
       </c>
@@ -3453,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>-41.909679598416098</v>
       </c>
@@ -3468,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>-158552.43309926699</v>
       </c>
@@ -3483,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>-51053.883457963901</v>
       </c>
@@ -3498,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>-64.683442769388705</v>
       </c>
@@ -3513,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>1678</v>
       </c>
@@ -3528,7 +3593,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>13328</v>
       </c>
@@ -3543,7 +3608,7 @@
         <v>13328</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>196140</v>
       </c>
@@ -3558,7 +3623,7 @@
         <v>196140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>13328</v>
       </c>
@@ -3573,7 +3638,7 @@
         <v>13328</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>196140</v>
       </c>
@@ -3588,7 +3653,7 @@
         <v>196140</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>-5360.2913139542597</v>
       </c>
@@ -3603,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>-1080.4190098988299</v>
       </c>
@@ -3618,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>-568.78293741068205</v>
       </c>
@@ -3633,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>-52.423490523606297</v>
       </c>
@@ -3648,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>-21.8855885827797</v>
       </c>
@@ -3663,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>-7.4273111208154896</v>
       </c>
@@ -3678,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>-4.89103601359417</v>
       </c>
@@ -3693,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>-1.18931249543923</v>
       </c>
@@ -3708,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>-5518.0780984584399</v>
       </c>
@@ -3723,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>-788.23458037646503</v>
       </c>
@@ -3738,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>-683.14930747006804</v>
       </c>
@@ -3753,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>-52.666796196182901</v>
       </c>
@@ -3768,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>-21.753273063496799</v>
       </c>
@@ -3783,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>-20.656766463149999</v>
       </c>
@@ -3798,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>-8.7880738667119793</v>
       </c>
@@ -3813,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>-3.9831041054891401</v>
       </c>
@@ -3828,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>-2400.8850068603001</v>
       </c>
@@ -3843,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>-342.95647001505102</v>
       </c>
@@ -3858,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>-297.23445382371199</v>
       </c>
@@ -3873,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>-22.915029307415399</v>
       </c>
@@ -3888,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>-9.4647277940625401</v>
       </c>
@@ -3903,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>-8.9876438873611608</v>
       </c>
@@ -3918,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>-3.8236419291825499</v>
       </c>
@@ -3933,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>-1.7330263829183801</v>
       </c>
@@ -3948,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>-6729.0976909670799</v>
       </c>
@@ -3963,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>-2654.3326476308398</v>
       </c>
@@ -3978,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>-79.64966140208</v>
       </c>
@@ -3993,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>-809666.73499999999</v>
       </c>
@@ -4008,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>-56732.144999999997</v>
       </c>
@@ -4023,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>-601.12</v>
       </c>
@@ -4038,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>296</v>
       </c>
@@ -4053,7 +4118,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>2816</v>
       </c>
@@ -4068,7 +4133,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>203</v>
       </c>
@@ -4083,7 +4148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>979.68</v>
       </c>
@@ -4098,7 +4163,7 @@
         <v>979.68</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="D66">
         <f>SUM(D4:D65)</f>
         <v>657275.7300000001</v>
@@ -4117,21 +4182,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -4146,7 +4211,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4">
         <f>IF(A4&gt;0,A4,0)</f>
         <v>0</v>
@@ -4165,21 +4230,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -4194,7 +4259,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="D4">
         <f>IF(A4&gt;0,A4,0)</f>
         <v>0</v>

--- a/premise/data/metals/conversion_factors.xlsx
+++ b/premise/data/metals/conversion_factors.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8D18F-61B1-4D87-B992-3611FC037CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC55A33-B498-4135-8D6D-B41C8E8F35B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion factors" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="166">
   <si>
     <t>Activity</t>
   </si>
@@ -729,6 +729,18 @@
   <si>
     <t>Conversion factor is one because I am taking an intensity of 0 for 2050, and want to use current values for the uncertainty</t>
   </si>
+  <si>
+    <t>wind power plant construction, 800kW, moving parts, direct drive</t>
+  </si>
+  <si>
+    <t>wind power plant construction, 2MW, offshore, moving parts, direct drive</t>
+  </si>
+  <si>
+    <t>wind turbine construction, 2MW, onshore, direct drive</t>
+  </si>
+  <si>
+    <t>wind turbine construction, 4.5MW, onshore, direct drive</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +786,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -807,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -828,6 +845,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1109,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1263,734 +1283,738 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <f>800/1000</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D11" s="3">
         <v>4.5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D13" s="3">
         <f>750/1000</f>
         <v>0.75</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D14" s="3">
         <f>2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D16" s="4">
         <f>0.114/0.32686</f>
         <v>0.3487731750596586</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="4">
-        <f>D14</f>
+      <c r="D17" s="4">
+        <f>D18</f>
         <v>0.19700000000000001</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>78</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D18" s="4">
         <f>0.197</f>
         <v>0.19700000000000001</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="4">
-        <f>AVERAGE(D13,D16)</f>
+      <c r="D19" s="4">
+        <f>AVERAGE(D17,D20)</f>
         <v>0.20300000000000001</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="4">
-        <f>D17</f>
+      <c r="D20" s="4">
+        <f>D21</f>
         <v>0.20899999999999999</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D21" s="4">
         <f>0.209</f>
         <v>0.20899999999999999</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E21" t="s">
         <v>84</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="4">
-        <f>D19</f>
+      <c r="D22" s="4">
+        <f>D23</f>
         <v>0.224</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D23" s="4">
         <f>0.224</f>
         <v>0.224</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E23" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D24" s="4">
         <f>0.159</f>
         <v>0.159</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D25" s="4">
         <v>0.159</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D26" s="4">
         <f>29.5/1000</f>
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D27" s="4">
         <v>0.1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E27" t="s">
         <v>147</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D28" s="4">
         <v>0.15</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D29" s="4">
         <f>0.238</f>
         <v>0.23799999999999999</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D30" s="10">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D35" s="3">
         <f>(0.00021)</f>
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D36" s="3">
         <f>(0.000192)</f>
         <v>1.92E-4</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D37" s="3">
         <f>(0.000224)</f>
         <v>2.24E-4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="3">
-        <f>D31</f>
+      <c r="D38" s="3">
+        <f>D35</f>
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="3">
-        <f>D33</f>
+      <c r="D39" s="3">
+        <f>D37</f>
         <v>2.24E-4</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D40" s="3">
         <f>0.000128</f>
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D41" s="3">
         <f>0.0001/1.4</f>
         <v>7.1428571428571434E-5</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D42" s="3">
         <f>0.0001/1.4</f>
         <v>7.1428571428571434E-5</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D43" s="3">
         <f>0.00008/(1.2*0.6)</f>
         <v>1.1111111111111113E-4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D44" s="3">
         <f>0.000078/(1.2*0.6)</f>
         <v>1.0833333333333334E-4</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D45" s="3">
         <f>0.000065/(1.2*0.6)</f>
         <v>9.0277777777777774E-5</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D46" s="3">
         <f>0.000115</f>
         <v>1.15E-4</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>71</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D47" s="3">
         <f>445/1000</f>
         <v>0.44500000000000001</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F47" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3">
-        <f>D33</f>
-        <v>2.24E-4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48">
-        <v>20</v>
+      <c r="D48" s="3">
+        <f>D37</f>
+        <v>2.24E-4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -1999,18 +2023,12 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <v>1500</v>
-      </c>
-      <c r="E49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -2019,12 +2037,12 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -2033,12 +2051,12 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>650</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -2047,12 +2065,12 @@
         <v>9</v>
       </c>
       <c r="D52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75">
-      <c r="A53" s="11" t="s">
-        <v>158</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -2061,15 +2079,18 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75">
-      <c r="A54" s="11" t="s">
-        <v>159</v>
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -2078,12 +2099,12 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75">
-      <c r="A55" s="11" t="s">
-        <v>160</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -2092,18 +2113,77 @@
         <v>9</v>
       </c>
       <c r="D55">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75">
+      <c r="A57" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="8:8">
-      <c r="H92">
-        <f>SUM(H10:H85)</f>
+      <c r="E57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75">
+      <c r="A58" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75">
+      <c r="A59" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96">
+        <f>SUM(H13:H89)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F46" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3200,7 +3280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
